--- a/Fujiya Instruments/Organic Slapped Bass/xlsx/OSB.xlsx
+++ b/Fujiya Instruments/Organic Slapped Bass/xlsx/OSB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6645" windowWidth="28830" windowHeight="6690" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="6660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Organic Slapped Bass (Main)" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="162">
   <si>
     <t>Name</t>
   </si>
@@ -578,9 +578,6 @@
     <t>Left Hand Stop</t>
   </si>
   <si>
-    <t>Stop</t>
-  </si>
-  <si>
     <t>Slide Down</t>
   </si>
   <si>
@@ -603,6 +600,20 @@
   </si>
   <si>
     <t>String - 4th</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Noiseless Stop</t>
+  </si>
+  <si>
+    <t>Noiseless Stop</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Mute Stop</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1233,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1232,10 +1243,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -3114,7 +3125,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -3131,7 +3142,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -3189,13 +3200,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>12</v>
@@ -3204,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G3" s="12">
         <v>120</v>
@@ -3216,13 +3227,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -3231,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="12">
         <v>120</v>
@@ -3243,13 +3254,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -3258,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -3269,13 +3280,27 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="A6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="12">
+        <v>120</v>
+      </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -4950,7 +4975,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -5025,13 +5050,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>12</v>
@@ -5052,13 +5077,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -6769,7 +6794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
@@ -6847,13 +6872,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>12</v>
@@ -6874,13 +6899,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -6901,13 +6926,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -6928,13 +6953,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -6955,13 +6980,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>

--- a/Fujiya Instruments/Organic Slapped Bass/xlsx/OSB.xlsx
+++ b/Fujiya Instruments/Organic Slapped Bass/xlsx/OSB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="6660" tabRatio="500"/>
+    <workbookView xWindow="-15" yWindow="6645" windowWidth="28830" windowHeight="6705" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Organic Slapped Bass (Main)" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="173">
   <si>
     <t>Name</t>
   </si>
@@ -573,12 +573,6 @@
   </si>
   <si>
     <t>Gliss Down</t>
-  </si>
-  <si>
-    <t>Left Hand Stop</t>
-  </si>
-  <si>
-    <t>Slide Down</t>
   </si>
   <si>
     <t>Pull</t>
@@ -606,14 +600,52 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Noiseless Stop</t>
-  </si>
-  <si>
-    <t>Noiseless Stop</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Mute Stop</t>
+    <t>Slide Down (vel 31)</t>
+  </si>
+  <si>
+    <t>Slide Down (vel 64)</t>
+  </si>
+  <si>
+    <t>Slide Down (vel 96)</t>
+  </si>
+  <si>
+    <t>Slide Down (vel 127)</t>
+  </si>
+  <si>
+    <t>Left Hand Stop (vel 31)</t>
+  </si>
+  <si>
+    <t>Left Hand Stop (vel 64)</t>
+  </si>
+  <si>
+    <t>Left Hand Stop (vel 96)</t>
+  </si>
+  <si>
+    <t>Left Hand Stop (vel 127)</t>
+  </si>
+  <si>
+    <t>Noiseless Stop (vel 31)</t>
+  </si>
+  <si>
+    <t>Noiseless Stop (vel 64)</t>
+  </si>
+  <si>
+    <t>Noiseless Stop (vel 96)</t>
+  </si>
+  <si>
+    <t>Noiseless Stop (vel 127)</t>
+  </si>
+  <si>
+    <t>Mute Stop (vel 31)</t>
+  </si>
+  <si>
+    <t>Mute Stop (vel 64)</t>
+  </si>
+  <si>
+    <t>Mute Stop (vel 96)</t>
+  </si>
+  <si>
+    <t>Mute Stop (vel 127)</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1265,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1243,7 +1275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3120,12 +3152,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -3142,7 +3174,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -3200,13 +3232,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>12</v>
@@ -3218,7 +3250,7 @@
         <v>45</v>
       </c>
       <c r="G3" s="12">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -3227,13 +3259,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -3242,10 +3274,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G4" s="12">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -3254,7 +3286,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
@@ -3269,10 +3301,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5" s="12">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -3281,13 +3313,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -3296,10 +3328,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G6" s="12">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -3307,156 +3339,324 @@
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="12">
+        <v>31</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="12">
+        <v>64</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="12">
+        <v>96</v>
+      </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="12">
+        <v>127</v>
+      </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="12">
+        <v>31</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="A12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="12">
+        <v>64</v>
+      </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="12">
+        <v>96</v>
+      </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="12">
+        <v>127</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="A15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="12">
+        <v>31</v>
+      </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="A16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="12">
+        <v>64</v>
+      </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="1"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="A17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="12">
+        <v>96</v>
+      </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="1"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="A18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="12">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="12">
+        <v>127</v>
+      </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -4905,26 +5105,143 @@
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="1"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="1"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="1"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="1"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K138">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J138">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G138">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I138">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B138">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4942,7 +5259,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F2:F138</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4951,7 +5268,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E2:E138</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4960,7 +5277,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D2:D138</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5050,13 +5367,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>12</v>
@@ -5077,13 +5394,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -6872,13 +7189,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>12</v>
@@ -6899,13 +7216,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -6926,13 +7243,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -6953,13 +7270,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -6980,13 +7297,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>

--- a/Fujiya Instruments/Organic Slapped Bass/xlsx/OSB.xlsx
+++ b/Fujiya Instruments/Organic Slapped Bass/xlsx/OSB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6645" windowWidth="28830" windowHeight="6705" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="6645" windowWidth="28830" windowHeight="6705" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Organic Slapped Bass (Main)" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -57,6 +72,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,6 +115,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -110,6 +155,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -126,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="178">
   <si>
     <t>Name</t>
   </si>
@@ -646,13 +706,28 @@
   </si>
   <si>
     <t>Mute Stop (vel 127)</t>
+  </si>
+  <si>
+    <t>Expression Map Name</t>
+  </si>
+  <si>
+    <t>Organic Slapped Bass (Main)</t>
+  </si>
+  <si>
+    <t>Organic Slapped Bass (Stop)</t>
+  </si>
+  <si>
+    <t>Organic Slapped Bass (Thumb)</t>
+  </si>
+  <si>
+    <t>Organic Slapped Bass (String)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -697,8 +772,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,6 +833,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDBEEF4"/>
         <bgColor rgb="FFEBF1DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -810,7 +898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,6 +958,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -960,13 +1054,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1265,7 +1359,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1273,12 +1367,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -1293,100 +1387,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -1394,12 +1447,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -1407,13 +1456,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -1422,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -1434,13 +1483,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -1449,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -1461,13 +1510,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -1476,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -1488,13 +1537,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -1503,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -1514,26 +1563,54 @@
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="12">
+        <v>120</v>
+      </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="12">
+        <v>120</v>
+      </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -3086,26 +3163,55 @@
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -3124,7 +3230,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3133,7 +3239,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -3142,7 +3248,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3152,12 +3258,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K138"/>
+  <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15:C18"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -3172,100 +3278,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="12">
-        <v>31</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -3273,12 +3338,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="12">
-        <v>64</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -3286,13 +3347,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -3304,7 +3365,7 @@
         <v>45</v>
       </c>
       <c r="G5" s="12">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -3313,13 +3374,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -3331,7 +3392,7 @@
         <v>45</v>
       </c>
       <c r="G6" s="12">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -3340,13 +3401,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -3355,10 +3416,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G7" s="12">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -3367,13 +3428,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -3382,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G8" s="12">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -3394,13 +3455,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -3412,7 +3473,7 @@
         <v>48</v>
       </c>
       <c r="G9" s="12">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -3421,13 +3482,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>12</v>
@@ -3439,7 +3500,7 @@
         <v>48</v>
       </c>
       <c r="G10" s="12">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -3448,13 +3509,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B11" s="12">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>12</v>
@@ -3463,10 +3524,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="12">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -3475,13 +3536,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>12</v>
@@ -3490,10 +3551,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="12">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -3502,13 +3563,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B13" s="12">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>12</v>
@@ -3520,7 +3581,7 @@
         <v>47</v>
       </c>
       <c r="G13" s="12">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -3529,13 +3590,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>12</v>
@@ -3547,7 +3608,7 @@
         <v>47</v>
       </c>
       <c r="G14" s="12">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -3556,13 +3617,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B15" s="12">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>12</v>
@@ -3571,10 +3632,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G15" s="12">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -3583,13 +3644,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B16" s="12">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>12</v>
@@ -3598,10 +3659,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G16" s="12">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -3610,13 +3671,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B17" s="12">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>12</v>
@@ -3628,7 +3689,7 @@
         <v>49</v>
       </c>
       <c r="G17" s="12">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -3637,13 +3698,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B18" s="12">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>12</v>
@@ -3655,7 +3716,7 @@
         <v>49</v>
       </c>
       <c r="G18" s="12">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -3663,26 +3724,54 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="12">
+        <v>96</v>
+      </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="12">
+        <v>127</v>
+      </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -5222,26 +5311,55 @@
       <c r="J138" s="12"/>
       <c r="K138" s="12"/>
     </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="1"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="1"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K138">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K140">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J138">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J140">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G138">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G140">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I138">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I140">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B138">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B140">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5259,7 +5377,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F138</xm:sqref>
+          <xm:sqref>F4:F140</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5268,7 +5386,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E138</xm:sqref>
+          <xm:sqref>E4:E140</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5277,7 +5395,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D138</xm:sqref>
+          <xm:sqref>D4:D140</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5287,12 +5405,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -5307,100 +5425,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -5408,38 +5485,62 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="A5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="12">
+        <v>120</v>
+      </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="A6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="12">
+        <v>120</v>
+      </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -7044,26 +7145,55 @@
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -7081,7 +7211,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -7090,7 +7220,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -7099,7 +7229,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7109,10 +7239,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -7129,100 +7259,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -7230,12 +7319,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -7243,13 +7328,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -7258,7 +7343,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -7270,13 +7355,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -7285,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -7297,13 +7382,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -7312,7 +7397,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -7323,26 +7408,54 @@
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="12">
+        <v>120</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="12">
+        <v>120</v>
+      </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -8908,26 +9021,55 @@
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8945,7 +9087,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8954,7 +9096,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8963,7 +9105,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
